--- a/Tools/卡名翻譯.xlsx
+++ b/Tools/卡名翻譯.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21315" windowHeight="11850" tabRatio="630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21315" windowHeight="11850" tabRatio="630" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="次元歪曲" sheetId="23" r:id="rId1"/>
@@ -8154,9 +8154,6 @@
     <t>滅世預言</t>
   </si>
   <si>
-    <t>無面魔女</t>
-  </si>
-  <si>
     <t>緋夜姬・斑比</t>
   </si>
   <si>
@@ -11424,9 +11421,6 @@
     <t>滅殺之鎧</t>
   </si>
   <si>
-    <t>上古英雄</t>
-  </si>
-  <si>
     <t>蠅之王</t>
   </si>
   <si>
@@ -11467,6 +11461,12 @@
   </si>
   <si>
     <t>天咆古劍・達因</t>
+  </si>
+  <si>
+    <t>亞元兇禍無貌魔女</t>
+  </si>
+  <si>
+    <t>古之英雄</t>
   </si>
 </sst>
 </file>
@@ -15443,8 +15443,8 @@
   </sheetPr>
   <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -15518,411 +15518,411 @@
     <row r="3" spans="1:24" ht="15.95" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="384" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="C3" s="286" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="47" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="95" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="I3" s="293" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="73" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="L3" s="75" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="430" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="O3" s="434" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:24" ht="15.95" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="423" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="C4" s="424" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="464" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="F4" s="425" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="426" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="I4" s="427" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="428" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="L4" s="429" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="436" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="O4" s="432" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:24" ht="15.95" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="55" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="C5" s="416" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="385" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="F5" s="418" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="419" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="I5" s="420" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="421" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="L5" s="422" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="431" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="O5" s="433" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:24" ht="15.95" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="423" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="C6" s="424" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="464" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="F6" s="425" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="240" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="I6" s="427" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="428" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="L6" s="429" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="436" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="O6" s="432" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:24" ht="15.95" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="55" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="C7" s="416" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="417" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="F7" s="418" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="419" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="I7" s="420" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="421" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="L7" s="422" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="431" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="O7" s="433" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:24" ht="15.95" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="423" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="C8" s="424" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="464" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="F8" s="425" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="426" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="I8" s="427" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="428" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="L8" s="429" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="436" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="O8" s="432" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:24" ht="15.95" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="435" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="C9" s="235" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="476" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="F9" s="418" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="477" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="I9" s="420" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="421" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="L9" s="422" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="431" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="O9" s="433" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:24" ht="15.95" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="423" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="C10" s="424" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="464" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="F10" s="425" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="426" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="I10" s="427" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="428" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="L10" s="429" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="386" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="O10" s="432" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:24" ht="15.95" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="287" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="C11" s="235" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="417" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="F11" s="418" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="419" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="I11" s="420" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="478" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="L11" s="422" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="431" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="O11" s="433" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:24" ht="15.95" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="423" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="C12" s="424" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="464" t="s">
+        <v>3162</v>
+      </c>
+      <c r="F12" s="425" t="s">
         <v>3163</v>
-      </c>
-      <c r="F12" s="425" t="s">
-        <v>3164</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="426" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="I12" s="427" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="428" t="s">
+        <v>3183</v>
+      </c>
+      <c r="L12" s="429" t="s">
         <v>3184</v>
-      </c>
-      <c r="L12" s="429" t="s">
-        <v>3185</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="465" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="O12" s="466" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:24" ht="8.1" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="498" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="C13" s="499" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="500" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="F13" s="501" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="502" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="I13" s="503" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="504" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="L13" s="505" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="300"/>
@@ -15951,31 +15951,31 @@
     <row r="15" spans="1:24" ht="8.1" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="520" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="C15" s="521" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="522" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="F15" s="523" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="524" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="I15" s="525" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="526" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="L15" s="527" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="518"/>
@@ -15997,41 +15997,41 @@
       <c r="L16" s="527"/>
       <c r="M16" s="4"/>
       <c r="N16" s="528" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="O16" s="530" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" ht="8.1" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="541" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="C17" s="499" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="544" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="F17" s="501" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="502" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="I17" s="503" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="549" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="L17" s="505" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="529"/>
@@ -16053,10 +16053,10 @@
       <c r="L18" s="551"/>
       <c r="M18" s="4"/>
       <c r="N18" s="552" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="O18" s="532" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="P18" s="5"/>
     </row>
@@ -16100,383 +16100,383 @@
       <c r="L20" s="540"/>
       <c r="M20" s="4"/>
       <c r="N20" s="479" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="O20" s="480" t="s">
-        <v>3536</v>
+        <v>3534</v>
       </c>
       <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:16" ht="15.95" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="412" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="C21" s="414" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="443" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="F21" s="445" t="s">
         <v>957</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="447" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="I21" s="449" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="453" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="L21" s="455" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="481" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="O21" s="482" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:16" ht="15.95" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="437" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="C22" s="438" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="439" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="F22" s="440" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="441" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="I22" s="442" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="483" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="L22" s="452" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="484" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="O22" s="480" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16" ht="15.95" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="413" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="C23" s="415" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="444" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="F23" s="446" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="448" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="I23" s="450" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="454" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="L23" s="456" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="481" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="O23" s="482" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16" ht="15.95" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="437" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="C24" s="438" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="457" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="F24" s="440" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="441" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="I24" s="442" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="451" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="L24" s="452" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="479" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="O24" s="485" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="P24" s="5"/>
     </row>
     <row r="25" spans="1:16" ht="15.95" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="413" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="C25" s="415" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="444" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="F25" s="446" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="448" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="I25" s="450" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="454" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="L25" s="456" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="481" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="O25" s="486" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" ht="15.95" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="437" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="C26" s="438" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="439" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="F26" s="440" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="441" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="I26" s="442" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="451" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="L26" s="452" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="479" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="O26" s="485" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" ht="15.95" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="413" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="C27" s="415" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="460" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="F27" s="446" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="448" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="I27" s="450" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="454" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="L27" s="456" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="481" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="O27" s="486" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="P27" s="5"/>
     </row>
     <row r="28" spans="1:16" ht="15.95" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="437" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="C28" s="438" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="439" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="F28" s="440" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="463" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="I28" s="442" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="451" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="L28" s="452" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="479" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="O28" s="485" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16" ht="15.95" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="413" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="C29" s="415" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="444" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="F29" s="446" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="448" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="I29" s="450" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="454" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="L29" s="456" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="487" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="O29" s="488" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="P29" s="5"/>
     </row>
     <row r="30" spans="1:16" ht="15.95" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="437" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C30" s="438" t="s">
         <v>3199</v>
-      </c>
-      <c r="C30" s="438" t="s">
-        <v>3200</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="439" t="s">
+        <v>3257</v>
+      </c>
+      <c r="F30" s="440" t="s">
         <v>3258</v>
-      </c>
-      <c r="F30" s="440" t="s">
-        <v>3259</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="441" t="s">
+        <v>3271</v>
+      </c>
+      <c r="I30" s="442" t="s">
         <v>3272</v>
-      </c>
-      <c r="I30" s="442" t="s">
-        <v>3273</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="451" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="L30" s="452" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="474"/>
@@ -16486,31 +16486,31 @@
     <row r="31" spans="1:16" ht="15.95" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="413" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="C31" s="415" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="444" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="F31" s="446" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="448" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="I31" s="450" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="471" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="L31" s="456" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="472"/>
@@ -16520,31 +16520,31 @@
     <row r="32" spans="1:16" ht="15.95" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="437" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="C32" s="438" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="439" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="F32" s="440" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="441" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="I32" s="442" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="451" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="L32" s="452" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="472"/>
@@ -16554,31 +16554,31 @@
     <row r="33" spans="1:16" ht="15.95" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="461" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="C33" s="462" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="458" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="F33" s="459" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="469" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="I33" s="470" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="467" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="L33" s="468" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="472"/>
@@ -16628,31 +16628,31 @@
     <row r="36" spans="1:16" ht="15.95" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="285" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="C36" s="286" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="D36" s="40"/>
       <c r="E36" s="489" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="F36" s="490" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="G36" s="40"/>
       <c r="H36" s="491" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="I36" s="492" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="J36" s="493"/>
       <c r="K36" s="494" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="L36" s="495" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="M36" s="40"/>
       <c r="N36" s="472"/>
@@ -16662,10 +16662,10 @@
     <row r="37" spans="1:16" ht="8.1" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="558" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="C37" s="560" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="D37" s="493"/>
       <c r="E37" s="262"/>
@@ -16726,17 +16726,17 @@
       <c r="C40" s="563"/>
       <c r="D40" s="472"/>
       <c r="E40" s="570" t="s">
+        <v>3264</v>
+      </c>
+      <c r="F40" s="572" t="s">
         <v>3265</v>
-      </c>
-      <c r="F40" s="572" t="s">
-        <v>3266</v>
       </c>
       <c r="G40" s="472"/>
       <c r="H40" s="576" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="I40" s="578" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="J40" s="472"/>
       <c r="K40" s="472"/>
@@ -16763,20 +16763,20 @@
     <row r="42" spans="1:16" ht="8.1" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="566" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="C42" s="568" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="D42" s="472"/>
       <c r="E42" s="474"/>
       <c r="F42" s="474"/>
       <c r="G42" s="472"/>
       <c r="H42" s="580" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="I42" s="582" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="J42" s="472"/>
       <c r="K42" s="472"/>
@@ -16802,10 +16802,10 @@
     <row r="44" spans="1:16" ht="8.1" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="556" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="C44" s="557" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="D44" s="40"/>
       <c r="G44" s="40"/>
@@ -16834,10 +16834,10 @@
     <row r="46" spans="1:16" ht="15.95" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="461" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="C46" s="462" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="D46" s="40"/>
       <c r="G46" s="40"/>
@@ -17172,7 +17172,7 @@
         <v>708</v>
       </c>
       <c r="C3" s="140" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="D3" s="141"/>
       <c r="E3" s="142" t="s">
@@ -17186,14 +17186,14 @@
         <v>731</v>
       </c>
       <c r="I3" s="145" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="J3" s="141"/>
       <c r="K3" s="146" t="s">
         <v>745</v>
       </c>
       <c r="L3" s="147" t="s">
-        <v>3535</v>
+        <v>3533</v>
       </c>
       <c r="M3" s="137"/>
     </row>
@@ -17203,7 +17203,7 @@
         <v>709</v>
       </c>
       <c r="C4" s="149" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="D4" s="136"/>
       <c r="E4" s="150" t="s">
@@ -17269,7 +17269,7 @@
       </c>
       <c r="D6" s="136"/>
       <c r="E6" s="150" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="F6" s="151" t="s">
         <v>875</v>
@@ -17286,7 +17286,7 @@
         <v>748</v>
       </c>
       <c r="L6" s="155" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="M6" s="137"/>
     </row>
@@ -17303,7 +17303,7 @@
         <v>721</v>
       </c>
       <c r="F7" s="159" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="G7" s="136"/>
       <c r="H7" s="160" t="s">
@@ -17434,7 +17434,7 @@
         <v>739</v>
       </c>
       <c r="I11" s="161" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="J11" s="136"/>
       <c r="K11" s="162" t="s">
@@ -17644,7 +17644,7 @@
         <v>759</v>
       </c>
       <c r="C19" s="184" t="s">
-        <v>3534</v>
+        <v>3532</v>
       </c>
       <c r="D19" s="136"/>
       <c r="E19" s="185" t="s">
@@ -17751,11 +17751,11 @@
         <v>788</v>
       </c>
       <c r="I22" s="196" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="J22" s="136"/>
       <c r="K22" s="207" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="L22" s="198" t="s">
         <v>827</v>
@@ -17775,7 +17775,7 @@
         <v>776</v>
       </c>
       <c r="F23" s="202" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="G23" s="136"/>
       <c r="H23" s="203" t="s">
@@ -17803,7 +17803,7 @@
       </c>
       <c r="D24" s="136"/>
       <c r="E24" s="193" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="F24" s="194" t="s">
         <v>1765</v>
@@ -17830,7 +17830,7 @@
         <v>765</v>
       </c>
       <c r="C25" s="200" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="D25" s="136"/>
       <c r="E25" s="201" t="s">
@@ -18243,7 +18243,7 @@
         <v>819</v>
       </c>
       <c r="C42" s="872" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="D42" s="133"/>
       <c r="E42" s="219"/>
@@ -18276,7 +18276,7 @@
         <v>820</v>
       </c>
       <c r="C44" s="796" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="E44" s="221"/>
       <c r="F44" s="221"/>
@@ -18360,7 +18360,7 @@
         <v>826</v>
       </c>
       <c r="I51" s="224" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="52" spans="5:10" ht="8.1" customHeight="1">
@@ -18494,7 +18494,7 @@
         <v>1566</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>3541</v>
+        <v>3539</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="104" t="s">
@@ -18549,7 +18549,7 @@
         <v>1467</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="21" t="s">
@@ -18563,7 +18563,7 @@
         <v>1682</v>
       </c>
       <c r="I5" s="115" t="s">
-        <v>3543</v>
+        <v>3541</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="317" t="s">
@@ -19876,7 +19876,7 @@
         <v>1584</v>
       </c>
       <c r="I55" s="107" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="J55" s="43"/>
       <c r="K55" s="43"/>
@@ -20019,7 +20019,7 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -20070,7 +20070,7 @@
         <v>994</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="47" t="s">
@@ -20084,7 +20084,7 @@
         <v>1206</v>
       </c>
       <c r="I3" s="96" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="73" t="s">
@@ -20742,7 +20742,7 @@
         <v>1334</v>
       </c>
       <c r="L24" s="80" t="s">
-        <v>3537</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.95" customHeight="1">
@@ -20919,10 +20919,10 @@
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="295" t="s">
+        <v>2470</v>
+      </c>
+      <c r="L30" s="296" t="s">
         <v>2471</v>
-      </c>
-      <c r="L30" s="296" t="s">
-        <v>2472</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.95" customHeight="1">
@@ -21755,7 +21755,7 @@
         <v>1760</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="57" t="s">
@@ -21776,7 +21776,7 @@
         <v>1328</v>
       </c>
       <c r="L9" s="88" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="317" t="s">
@@ -21852,7 +21852,7 @@
         <v>1279</v>
       </c>
       <c r="L11" s="686" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="262"/>
@@ -21931,7 +21931,7 @@
         <v>1591</v>
       </c>
       <c r="O14" s="893" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="P14" s="336"/>
     </row>
@@ -22162,7 +22162,7 @@
         <v>1551</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="114" t="s">
@@ -22310,7 +22310,7 @@
         <v>1384</v>
       </c>
       <c r="C28" s="254" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="D28" s="243"/>
       <c r="E28" s="16" t="s">
@@ -22362,7 +22362,7 @@
         <v>2111</v>
       </c>
       <c r="L29" s="311" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="M29" s="5"/>
     </row>
@@ -22721,411 +22721,411 @@
     <row r="3" spans="1:24" ht="15.95" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="384" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="C3" s="286" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="47" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="95" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="I3" s="293" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="73" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="L3" s="75" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="358" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="O3" s="360" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:24" ht="15.95" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="50" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="C4" s="232" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="59" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="381" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="I4" s="382" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="375" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="L4" s="377" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="112" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="O4" s="119" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:24" ht="15.95" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="55" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="C5" s="323" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="385" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="82" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="I5" s="236" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="84" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="L5" s="86" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="359" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="O5" s="361" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:24" ht="15.95" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="50" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="C6" s="232" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="59" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="240" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="I6" s="382" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="375" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="L6" s="377" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="112" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="O6" s="119" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:24" ht="15.95" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="55" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="C7" s="323" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="63" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="82" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="I7" s="236" t="s">
         <v>2187</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="84" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="L7" s="86" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="359" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="O7" s="361" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:24" ht="15.95" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="50" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="C8" s="232" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="59" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="381" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="I8" s="382" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="375" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="L8" s="377" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="112" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="O8" s="119" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:24" ht="15.95" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="388" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="C9" s="235" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="63" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="82" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="I9" s="236" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="84" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="L9" s="86" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="359" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="O9" s="361" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:24" ht="15.95" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="50" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="C10" s="232" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="59" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="381" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="I10" s="382" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="375" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="L10" s="377" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="112" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="O10" s="119" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:24" ht="15.95" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="287" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="C11" s="235" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="63" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="82" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="I11" s="236" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="84" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="L11" s="86" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="256" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="O11" s="361" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:24" ht="15.95" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="50" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="C12" s="232" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="59" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="F12" s="60" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="381" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="I12" s="382" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="375" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="L12" s="377" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="130" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="O12" s="131" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:24" ht="15.95" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="239" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="C13" s="323" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="63" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="82" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="I13" s="236" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="84" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="L13" s="86" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="300"/>
@@ -23141,24 +23141,24 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="59" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="381" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="I14" s="382" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="375" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="L14" s="377" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="629"/>
@@ -23168,31 +23168,31 @@
     <row r="15" spans="1:24" ht="15.95" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="241" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="C15" s="404" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="244" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="F15" s="245" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="406" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="I15" s="246" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="405" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="L15" s="248" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="41"/>
@@ -23245,31 +23245,31 @@
     <row r="18" spans="1:16" ht="15.95" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="365" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="C18" s="403" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="10" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="F18" s="398" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="104" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="I18" s="392" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="301" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="L18" s="302" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="41"/>
@@ -23279,31 +23279,31 @@
     <row r="19" spans="1:16" ht="15.95" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="14" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="C19" s="254" t="s">
         <v>1427</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="16" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="110" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="I19" s="118" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="303" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="L19" s="304" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="41"/>
@@ -23313,31 +23313,31 @@
     <row r="20" spans="1:16" ht="15.95" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="19" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="C20" s="255" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="21" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="114" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="I20" s="120" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="305" t="s">
+        <v>2924</v>
+      </c>
+      <c r="L20" s="306" t="s">
         <v>2925</v>
-      </c>
-      <c r="L20" s="306" t="s">
-        <v>2926</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="32"/>
@@ -23347,31 +23347,31 @@
     <row r="21" spans="1:16" ht="15.95" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="14" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="C21" s="254" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="257" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="110" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="I21" s="118" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="303" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="L21" s="304" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="M21" s="4"/>
       <c r="P21" s="5"/>
@@ -23379,31 +23379,31 @@
     <row r="22" spans="1:16" ht="15.95" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="19" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="C22" s="255" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="21" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="114" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="I22" s="120" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="305" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="L22" s="306" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="M22" s="4"/>
       <c r="P22" s="5"/>
@@ -23411,31 +23411,31 @@
     <row r="23" spans="1:16" ht="15.95" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="14" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="C23" s="254" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="16" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="110" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="I23" s="118" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="303" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="L23" s="304" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="M23" s="4"/>
       <c r="P23" s="5"/>
@@ -23443,31 +23443,31 @@
     <row r="24" spans="1:16" ht="15.95" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="19" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="C24" s="255" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="399" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="114" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="I24" s="120" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="305" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="L24" s="306" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="M24" s="4"/>
       <c r="P24" s="5"/>
@@ -23475,31 +23475,31 @@
     <row r="25" spans="1:16" ht="15.95" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="14" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="C25" s="254" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="16" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="290" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="I25" s="118" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="303" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="L25" s="304" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="M25" s="4"/>
       <c r="P25" s="5"/>
@@ -23507,31 +23507,31 @@
     <row r="26" spans="1:16" ht="15.95" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="19" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="C26" s="255" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="21" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="114" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="I26" s="120" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="305" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="L26" s="306" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="M26" s="4"/>
       <c r="P26" s="5"/>
@@ -23539,31 +23539,31 @@
     <row r="27" spans="1:16" ht="15.95" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="14" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="C27" s="254" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="16" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="110" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="I27" s="118" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="303" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="L27" s="304" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="M27" s="4"/>
       <c r="P27" s="5"/>
@@ -23571,31 +23571,31 @@
     <row r="28" spans="1:16" ht="15.95" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="19" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="C28" s="255" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="21" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="114" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="I28" s="120" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="390" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="L28" s="306" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="M28" s="4"/>
       <c r="P28" s="5"/>
@@ -23603,31 +23603,31 @@
     <row r="29" spans="1:16" ht="15.95" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="14" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="C29" s="254" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="16" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="110" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="I29" s="118" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="303" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="L29" s="304" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="M29" s="4"/>
       <c r="P29" s="5"/>
@@ -23635,31 +23635,31 @@
     <row r="30" spans="1:16" ht="15.95" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="28" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="C30" s="258" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="259" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="F30" s="260" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="123" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="I30" s="261" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="310" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="L30" s="311" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="380"/>
@@ -23709,31 +23709,31 @@
     <row r="33" spans="1:16" ht="15.95" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="285" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="C33" s="286" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="47" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="F33" s="49" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="G33" s="40"/>
       <c r="H33" s="95" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="I33" s="293" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="J33" s="40"/>
       <c r="K33" s="73" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="L33" s="75" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="M33" s="40"/>
       <c r="N33" s="379"/>
@@ -23743,31 +23743,31 @@
     <row r="34" spans="1:16" ht="15.95" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="67" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="C34" s="288" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="D34" s="40"/>
       <c r="E34" s="59" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="F34" s="60" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="G34" s="40"/>
       <c r="H34" s="381" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="I34" s="382" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="J34" s="40"/>
       <c r="K34" s="376" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="L34" s="378" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="M34" s="40"/>
       <c r="N34" s="380"/>
@@ -23779,17 +23779,17 @@
       <c r="C35" s="300"/>
       <c r="D35" s="380"/>
       <c r="E35" s="606" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="F35" s="608" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="G35" s="41"/>
       <c r="H35" s="623" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="I35" s="625" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="J35" s="40"/>
       <c r="K35" s="324"/>
@@ -23823,17 +23823,17 @@
       <c r="C37" s="628"/>
       <c r="D37" s="40"/>
       <c r="E37" s="591" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="F37" s="593" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="G37" s="40"/>
       <c r="H37" s="601" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="I37" s="603" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="J37" s="40"/>
       <c r="K37" s="618"/>
@@ -23844,10 +23844,10 @@
     <row r="38" spans="1:16" ht="8.1" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="599" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="C38" s="600" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="D38" s="40"/>
       <c r="E38" s="620"/>
@@ -23857,10 +23857,10 @@
       <c r="I38" s="604"/>
       <c r="J38" s="40"/>
       <c r="K38" s="605" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="L38" s="622" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="M38" s="42"/>
       <c r="N38" s="380"/>
@@ -23871,10 +23871,10 @@
       <c r="C39" s="586"/>
       <c r="D39" s="40"/>
       <c r="E39" s="606" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="F39" s="608" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="G39" s="40"/>
       <c r="H39" s="32"/>
@@ -23888,10 +23888,10 @@
     <row r="40" spans="1:16" ht="8.1" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="612" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="C40" s="587" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="D40" s="40"/>
       <c r="E40" s="607"/>
@@ -23903,10 +23903,10 @@
       <c r="I40" s="615"/>
       <c r="J40" s="42"/>
       <c r="K40" s="610" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="L40" s="589" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="M40" s="380"/>
       <c r="N40" s="380"/>
@@ -23917,10 +23917,10 @@
       <c r="C41" s="588"/>
       <c r="D41" s="40"/>
       <c r="E41" s="591" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="F41" s="593" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="G41" s="40"/>
       <c r="H41" s="616"/>
@@ -23934,27 +23934,27 @@
     <row r="42" spans="1:16" ht="8.1" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="585" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="C42" s="586" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="D42" s="40"/>
       <c r="E42" s="592"/>
       <c r="F42" s="594"/>
       <c r="G42" s="40"/>
       <c r="H42" s="576" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="I42" s="578" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="J42" s="42"/>
       <c r="K42" s="595" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="L42" s="597" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="M42" s="380"/>
       <c r="N42" s="380"/>
@@ -23978,10 +23978,10 @@
     <row r="44" spans="1:16" ht="15.95" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="33" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="C44" s="407" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="D44" s="40"/>
       <c r="E44" s="535" t="s">
@@ -23990,17 +23990,17 @@
       <c r="F44" s="536"/>
       <c r="G44" s="40"/>
       <c r="H44" s="128" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="I44" s="393" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="J44" s="42"/>
       <c r="K44" s="312" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="L44" s="313" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="M44" s="380"/>
       <c r="N44" s="380"/>
@@ -24011,10 +24011,10 @@
       <c r="C45" s="39"/>
       <c r="D45" s="4"/>
       <c r="E45" s="368" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="F45" s="369" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="39"/>
@@ -24030,10 +24030,10 @@
       <c r="C46" s="380"/>
       <c r="D46" s="4"/>
       <c r="E46" s="36" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="380"/>
@@ -24249,411 +24249,411 @@
     <row r="3" spans="1:24" ht="15.95" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="384" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="C3" s="286" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="47" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="95" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="I3" s="293" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="73" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="L3" s="75" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="358" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="O3" s="360" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:24" ht="15.95" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="50" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="C4" s="232" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="59" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="381" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="I4" s="382" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="375" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="L4" s="377" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="112" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="O4" s="119" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:24" ht="15.95" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="55" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="C5" s="323" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="385" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="82" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="I5" s="236" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="84" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="L5" s="86" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="359" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="O5" s="361" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:24" ht="15.95" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="50" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="C6" s="232" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="395" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="408" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="I6" s="382" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="375" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="L6" s="377" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="112" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="O6" s="119" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:24" ht="15.95" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="394" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="C7" s="323" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="63" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="82" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="I7" s="236" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="84" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="L7" s="86" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="359" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="O7" s="361" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:24" ht="15.95" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="50" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="C8" s="232" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="59" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="381" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="I8" s="382" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="375" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="L8" s="377" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="112" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="O8" s="119" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:24" ht="15.95" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="234" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="C9" s="235" t="s">
-        <v>3233</v>
+        <v>3232</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="63" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="82" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="I9" s="236" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="84" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="L9" s="86" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="359" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="O9" s="361" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:24" ht="15.95" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="50" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="C10" s="232" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="59" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="381" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="I10" s="382" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="375" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="L10" s="377" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="396" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="O10" s="119" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:24" ht="15.95" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="287" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="C11" s="235" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="63" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="82" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="I11" s="236" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="84" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="L11" s="86" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="256" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="O11" s="361" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:24" ht="15.95" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="50" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="C12" s="232" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="59" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="F12" s="60" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="381" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="I12" s="382" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="375" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="L12" s="377" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="130" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="O12" s="131" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:24" ht="8.1" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="498" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="C13" s="499" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="544" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="F13" s="501" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="502" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="I13" s="503" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="504" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="L13" s="505" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="300"/>
@@ -24682,31 +24682,31 @@
     <row r="15" spans="1:24" ht="8.1" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="520" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="C15" s="521" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="670" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="F15" s="523" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="524" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="I15" s="525" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="526" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="L15" s="527" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="518"/>
@@ -24728,27 +24728,27 @@
       <c r="L16" s="527"/>
       <c r="M16" s="4"/>
       <c r="N16" s="665" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="O16" s="668" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" ht="8.1" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="541" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="C17" s="499" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="544" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="F17" s="501" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="669" t="s">
@@ -24759,10 +24759,10 @@
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="549" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="L17" s="505" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="666"/>
@@ -24784,10 +24784,10 @@
       <c r="L18" s="551"/>
       <c r="M18" s="4"/>
       <c r="N18" s="651" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="O18" s="653" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="P18" s="5"/>
     </row>
@@ -24831,10 +24831,10 @@
       <c r="L20" s="540"/>
       <c r="M20" s="4"/>
       <c r="N20" s="666" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="O20" s="667" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="P20" s="5"/>
     </row>
@@ -24859,38 +24859,38 @@
     <row r="22" spans="1:16" ht="8.1" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="566" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="C22" s="600" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="570" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="F22" s="572" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="661" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="I22" s="663" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="647" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="L22" s="649" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="651" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="O22" s="653" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="P22" s="5"/>
     </row>
@@ -24915,38 +24915,38 @@
     <row r="24" spans="1:16" ht="8.1" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="556" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="C24" s="557" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="655" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="F24" s="656" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="657" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="I24" s="658" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="645" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="L24" s="646" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="631" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="O24" s="633" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="P24" s="5"/>
     </row>
@@ -24971,31 +24971,31 @@
     <row r="26" spans="1:16" ht="15.95" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="19" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="C26" s="255" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="21" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>3540</v>
+        <v>3538</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="114" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="I26" s="120" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="305" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="L26" s="306" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="32"/>
@@ -25005,31 +25005,31 @@
     <row r="27" spans="1:16" ht="15.95" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="14" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="C27" s="254" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="257" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="110" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="I27" s="118" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="303" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="L27" s="304" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="M27" s="4"/>
       <c r="P27" s="5"/>
@@ -25037,31 +25037,31 @@
     <row r="28" spans="1:16" ht="15.95" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="19" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="C28" s="255" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="21" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="114" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="I28" s="120" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="305" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="L28" s="306" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="M28" s="4"/>
       <c r="P28" s="5"/>
@@ -25069,31 +25069,31 @@
     <row r="29" spans="1:16" ht="15.95" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="14" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="C29" s="254" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="16" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="110" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="I29" s="118" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="303" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="L29" s="304" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="M29" s="4"/>
       <c r="P29" s="5"/>
@@ -25101,31 +25101,31 @@
     <row r="30" spans="1:16" ht="15.95" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="19" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="C30" s="255" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="399" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="114" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="I30" s="120" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="305" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="L30" s="306" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="M30" s="4"/>
       <c r="P30" s="5"/>
@@ -25133,31 +25133,31 @@
     <row r="31" spans="1:16" ht="15.95" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="14" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="C31" s="254" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="16" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="290" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="I31" s="118" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="303" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="L31" s="304" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="M31" s="4"/>
       <c r="P31" s="5"/>
@@ -25165,31 +25165,31 @@
     <row r="32" spans="1:16" ht="15.95" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="19" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="C32" s="255" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="21" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="114" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="I32" s="120" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="305" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="L32" s="306" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="M32" s="4"/>
       <c r="P32" s="5"/>
@@ -25197,31 +25197,31 @@
     <row r="33" spans="1:16" ht="15.95" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="14" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="C33" s="254" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="16" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="110" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="I33" s="118" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="303" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="L33" s="304" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="M33" s="4"/>
       <c r="P33" s="5"/>
@@ -25229,31 +25229,31 @@
     <row r="34" spans="1:16" ht="15.95" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="19" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="C34" s="255" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="21" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="114" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="I34" s="120" t="s">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="390" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="L34" s="306" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="M34" s="4"/>
       <c r="P34" s="5"/>
@@ -25268,24 +25268,24 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="16" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="110" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="I35" s="118" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="303" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="L35" s="304" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="M35" s="4"/>
       <c r="P35" s="5"/>
@@ -25293,31 +25293,31 @@
     <row r="36" spans="1:16" ht="15.95" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="28" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="C36" s="258" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="259" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="F36" s="260" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="123" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="I36" s="261" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="310" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="L36" s="311" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="380"/>
@@ -25367,31 +25367,31 @@
     <row r="39" spans="1:16" ht="15.95" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="285" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="C39" s="286" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="D39" s="40"/>
       <c r="E39" s="47" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="G39" s="40"/>
       <c r="H39" s="95" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="I39" s="293" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="J39" s="40"/>
       <c r="K39" s="73" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="L39" s="75" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="M39" s="40"/>
       <c r="N39" s="379"/>
@@ -25401,31 +25401,31 @@
     <row r="40" spans="1:16" ht="15.95" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="50" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="C40" s="232" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="D40" s="40"/>
       <c r="E40" s="59" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="G40" s="40"/>
       <c r="H40" s="381" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="I40" s="382" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="J40" s="40"/>
       <c r="K40" s="375" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="L40" s="377" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="M40" s="40"/>
       <c r="N40" s="380"/>
@@ -25435,31 +25435,31 @@
     <row r="41" spans="1:16" ht="15.95" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="234" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="C41" s="235" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="D41" s="40"/>
       <c r="E41" s="63" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="F41" s="64" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="G41" s="40"/>
       <c r="H41" s="91" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="I41" s="236" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="J41" s="40"/>
       <c r="K41" s="84" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="L41" s="86" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="M41" s="40"/>
       <c r="N41" s="380"/>
@@ -25469,31 +25469,31 @@
     <row r="42" spans="1:16" ht="15.95" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="50" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="C42" s="232" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="D42" s="40"/>
       <c r="E42" s="59" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="F42" s="60" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="G42" s="40"/>
       <c r="H42" s="381" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="I42" s="382" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="J42" s="40"/>
       <c r="K42" s="375" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="L42" s="377" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="M42" s="42"/>
       <c r="N42" s="39"/>
@@ -25502,31 +25502,31 @@
     <row r="43" spans="1:16" ht="15.95" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="241" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="C43" s="242" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="D43" s="40"/>
       <c r="E43" s="364" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="F43" s="357" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="G43" s="40"/>
       <c r="H43" s="92" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="I43" s="246" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="J43" s="40"/>
       <c r="K43" s="247" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="L43" s="248" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="M43" s="42"/>
       <c r="N43" s="380"/>
@@ -25536,10 +25536,10 @@
       <c r="C44" s="300"/>
       <c r="D44" s="380"/>
       <c r="E44" s="641" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="F44" s="593" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="G44" s="41"/>
       <c r="H44" s="324"/>
@@ -25578,10 +25578,10 @@
       <c r="C46" s="628"/>
       <c r="D46" s="40"/>
       <c r="E46" s="606" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="F46" s="608" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="G46" s="40"/>
       <c r="H46" s="616"/>
@@ -25595,27 +25595,27 @@
     <row r="47" spans="1:16" ht="8.1" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="599" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="C47" s="600" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="D47" s="40"/>
       <c r="E47" s="607"/>
       <c r="F47" s="609"/>
       <c r="G47" s="40"/>
       <c r="H47" s="576" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="I47" s="578" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="J47" s="40"/>
       <c r="K47" s="605" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="L47" s="622" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="M47" s="42"/>
       <c r="N47" s="380"/>
@@ -25626,10 +25626,10 @@
       <c r="C48" s="586"/>
       <c r="D48" s="40"/>
       <c r="E48" s="591" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="F48" s="593" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="G48" s="40"/>
       <c r="H48" s="577"/>
@@ -25643,27 +25643,27 @@
     <row r="49" spans="1:14" ht="8.1" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="556" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="C49" s="557" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="D49" s="40"/>
       <c r="E49" s="620"/>
       <c r="F49" s="621"/>
       <c r="G49" s="40"/>
       <c r="H49" s="580" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="I49" s="582" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="J49" s="42"/>
       <c r="K49" s="610" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="L49" s="589" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="M49" s="380"/>
       <c r="N49" s="380"/>
@@ -25674,10 +25674,10 @@
       <c r="C50" s="557"/>
       <c r="D50" s="40"/>
       <c r="E50" s="606" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="F50" s="608" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="G50" s="40"/>
       <c r="H50" s="635"/>
@@ -25691,27 +25691,27 @@
     <row r="51" spans="1:14" ht="8.1" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="585" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="C51" s="586" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="D51" s="40"/>
       <c r="E51" s="643"/>
       <c r="F51" s="644"/>
       <c r="G51" s="40"/>
       <c r="H51" s="637" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="I51" s="638" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="J51" s="42"/>
       <c r="K51" s="595" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="L51" s="597" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="M51" s="380"/>
       <c r="N51" s="380"/>
@@ -25735,10 +25735,10 @@
     <row r="53" spans="1:14" ht="8.1" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="556" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="C53" s="557" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="D53" s="40"/>
       <c r="E53" s="535" t="s">
@@ -25747,17 +25747,17 @@
       <c r="F53" s="536"/>
       <c r="G53" s="40"/>
       <c r="H53" s="580" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="I53" s="582" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="J53" s="42"/>
       <c r="K53" s="610" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="L53" s="589" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="M53" s="380"/>
       <c r="N53" s="380"/>
@@ -25784,20 +25784,20 @@
       <c r="C55" s="39"/>
       <c r="D55" s="4"/>
       <c r="E55" s="368" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="F55" s="369" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="32"/>
       <c r="I55" s="32"/>
       <c r="J55" s="5"/>
       <c r="K55" s="367" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="L55" s="374" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.95" customHeight="1">
@@ -25806,20 +25806,20 @@
       <c r="C56" s="380"/>
       <c r="D56" s="4"/>
       <c r="E56" s="370" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="F56" s="371" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="380"/>
       <c r="I56" s="380"/>
       <c r="J56" s="5"/>
       <c r="K56" s="372" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="L56" s="373" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.95" customHeight="1">
@@ -25827,39 +25827,39 @@
       <c r="C57" s="32"/>
       <c r="D57" s="3"/>
       <c r="E57" s="21" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="F57" s="366" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="379"/>
       <c r="I57" s="380"/>
       <c r="J57" s="5"/>
       <c r="K57" s="367" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="L57" s="374" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.95" customHeight="1">
       <c r="D58" s="3"/>
       <c r="E58" s="36" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="F58" s="37" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="380"/>
       <c r="I58" s="380"/>
       <c r="J58" s="5"/>
       <c r="K58" s="312" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="L58" s="313" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="8.1" customHeight="1">
@@ -26010,7 +26010,7 @@
   <dimension ref="A1:X77"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="L15" sqref="L15:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -26094,7 +26094,7 @@
         <v>2282</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="95" t="s">
@@ -26108,14 +26108,14 @@
         <v>2318</v>
       </c>
       <c r="L3" s="75" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="358" t="s">
         <v>2408</v>
       </c>
       <c r="O3" s="360" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="P3" s="5"/>
     </row>
@@ -26125,73 +26125,73 @@
         <v>2269</v>
       </c>
       <c r="C4" s="232" t="s">
-        <v>3539</v>
+        <v>3537</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="59" t="s">
         <v>2298</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="381" t="s">
         <v>2302</v>
       </c>
       <c r="I4" s="382" t="s">
-        <v>2443</v>
+        <v>3546</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="375" t="s">
         <v>2319</v>
       </c>
       <c r="L4" s="377" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="112" t="s">
         <v>2411</v>
       </c>
       <c r="O4" s="119" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:24" ht="15.95" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="55" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="C5" s="323" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="385" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="82" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="I5" s="236" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="387" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="L5" s="86" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="359" t="s">
         <v>2412</v>
       </c>
       <c r="O5" s="361" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="P5" s="5"/>
     </row>
@@ -26208,14 +26208,14 @@
         <v>2285</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="240" t="s">
         <v>2305</v>
       </c>
       <c r="I6" s="382" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="375" t="s">
@@ -26229,7 +26229,7 @@
         <v>2413</v>
       </c>
       <c r="O6" s="119" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="P6" s="5"/>
     </row>
@@ -26239,73 +26239,73 @@
         <v>2271</v>
       </c>
       <c r="C7" s="323" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="63" t="s">
         <v>2286</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="82" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="I7" s="236" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="84" t="s">
+        <v>2603</v>
+      </c>
+      <c r="L7" s="86" t="s">
         <v>2604</v>
-      </c>
-      <c r="L7" s="86" t="s">
-        <v>2605</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="359" t="s">
+        <v>2594</v>
+      </c>
+      <c r="O7" s="361" t="s">
         <v>2595</v>
-      </c>
-      <c r="O7" s="361" t="s">
-        <v>2596</v>
       </c>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:24" ht="15.95" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="50" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="C8" s="232" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="59" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="381" t="s">
         <v>2308</v>
       </c>
       <c r="I8" s="382" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="375" t="s">
         <v>2323</v>
       </c>
       <c r="L8" s="377" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="112" t="s">
         <v>2414</v>
       </c>
       <c r="O8" s="119" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="P8" s="5"/>
     </row>
@@ -26315,14 +26315,14 @@
         <v>2274</v>
       </c>
       <c r="C9" s="235" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="63" t="s">
         <v>2289</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="82" t="s">
@@ -26336,7 +26336,7 @@
         <v>2326</v>
       </c>
       <c r="L9" s="86" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="359" t="s">
@@ -26353,35 +26353,35 @@
         <v>2275</v>
       </c>
       <c r="C10" s="232" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="59" t="s">
         <v>2290</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="381" t="s">
         <v>2310</v>
       </c>
       <c r="I10" s="382" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="375" t="s">
         <v>2327</v>
       </c>
       <c r="L10" s="377" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="386" t="s">
         <v>2416</v>
       </c>
       <c r="O10" s="119" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="P10" s="5"/>
     </row>
@@ -26391,35 +26391,35 @@
         <v>2276</v>
       </c>
       <c r="C11" s="235" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="63" t="s">
         <v>2299</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="82" t="s">
         <v>2313</v>
       </c>
       <c r="I11" s="236" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="84" t="s">
         <v>2328</v>
       </c>
       <c r="L11" s="86" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="359" t="s">
         <v>2417</v>
       </c>
       <c r="O11" s="361" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="P11" s="5"/>
     </row>
@@ -26429,35 +26429,35 @@
         <v>2279</v>
       </c>
       <c r="C12" s="232" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="59" t="s">
         <v>2293</v>
       </c>
       <c r="F12" s="60" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="381" t="s">
         <v>2314</v>
       </c>
       <c r="I12" s="382" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="375" t="s">
         <v>2331</v>
       </c>
       <c r="L12" s="377" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="130" t="s">
         <v>2418</v>
       </c>
       <c r="O12" s="131" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="P12" s="5"/>
     </row>
@@ -26467,28 +26467,28 @@
         <v>2280</v>
       </c>
       <c r="C13" s="499" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="544" t="s">
         <v>2294</v>
       </c>
       <c r="F13" s="501" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="502" t="s">
         <v>2315</v>
       </c>
       <c r="I13" s="503" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="504" t="s">
         <v>2332</v>
       </c>
       <c r="L13" s="505" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="300"/>
@@ -26520,28 +26520,28 @@
         <v>2281</v>
       </c>
       <c r="C15" s="521" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="522" t="s">
         <v>2300</v>
       </c>
       <c r="F15" s="523" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="524" t="s">
         <v>2316</v>
       </c>
       <c r="I15" s="525" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="526" t="s">
         <v>2333</v>
       </c>
       <c r="L15" s="527" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="518"/>
@@ -26566,7 +26566,7 @@
         <v>2409</v>
       </c>
       <c r="O16" s="668" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="P16" s="5"/>
     </row>
@@ -26576,28 +26576,28 @@
         <v>2297</v>
       </c>
       <c r="C17" s="499" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="544" t="s">
         <v>2295</v>
       </c>
       <c r="F17" s="501" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="502" t="s">
         <v>2317</v>
       </c>
       <c r="I17" s="503" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="549" t="s">
         <v>2334</v>
       </c>
       <c r="L17" s="505" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="666"/>
@@ -26622,7 +26622,7 @@
         <v>2410</v>
       </c>
       <c r="O18" s="653" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="P18" s="5"/>
     </row>
@@ -26666,10 +26666,10 @@
       <c r="L20" s="540"/>
       <c r="M20" s="4"/>
       <c r="N20" s="666" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="O20" s="667" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="P20" s="5"/>
     </row>
@@ -26704,28 +26704,28 @@
         <v>2352</v>
       </c>
       <c r="F22" s="572" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="661" t="s">
         <v>2366</v>
       </c>
       <c r="I22" s="663" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="647" t="s">
         <v>2385</v>
       </c>
       <c r="L22" s="649" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="651" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="O22" s="653" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="P22" s="5"/>
     </row>
@@ -26753,28 +26753,28 @@
         <v>2337</v>
       </c>
       <c r="C24" s="557" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="655" t="s">
         <v>2353</v>
       </c>
       <c r="F24" s="656" t="s">
-        <v>3538</v>
+        <v>3536</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="657" t="s">
         <v>2367</v>
       </c>
       <c r="I24" s="658" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="645" t="s">
         <v>2386</v>
       </c>
       <c r="L24" s="646" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="32"/>
@@ -26804,31 +26804,31 @@
     <row r="26" spans="1:16" ht="8.1" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="585" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="C26" s="586" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="659" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="F26" s="660" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="662" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="I26" s="664" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="648" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="L26" s="650" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="618"/>
@@ -26853,7 +26853,7 @@
         <v>2387</v>
       </c>
       <c r="O27" s="649" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="P27" s="5"/>
     </row>
@@ -26863,28 +26863,28 @@
         <v>2340</v>
       </c>
       <c r="C28" s="557" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="702" t="s">
         <v>2356</v>
       </c>
       <c r="F28" s="656" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="657" t="s">
         <v>2370</v>
       </c>
       <c r="I28" s="658" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="645" t="s">
         <v>2393</v>
       </c>
       <c r="L28" s="646" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="648"/>
@@ -26909,7 +26909,7 @@
         <v>2388</v>
       </c>
       <c r="O29" s="589" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="P29" s="5"/>
     </row>
@@ -26919,28 +26919,28 @@
         <v>2341</v>
       </c>
       <c r="C30" s="586" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="659" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="F30" s="660" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="662" t="s">
         <v>2371</v>
       </c>
       <c r="I30" s="664" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="648" t="s">
         <v>2394</v>
       </c>
       <c r="L30" s="650" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="611"/>
@@ -26965,38 +26965,38 @@
         <v>2389</v>
       </c>
       <c r="O31" s="597" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="P31" s="5"/>
     </row>
     <row r="32" spans="1:16" ht="8.1" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="556" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="C32" s="557" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="655" t="s">
         <v>2357</v>
       </c>
       <c r="F32" s="656" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="657" t="s">
+        <v>2612</v>
+      </c>
+      <c r="I32" s="658" t="s">
         <v>2613</v>
-      </c>
-      <c r="I32" s="658" t="s">
-        <v>2614</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="645" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="L32" s="646" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="596"/>
@@ -27021,7 +27021,7 @@
         <v>2390</v>
       </c>
       <c r="O33" s="589" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="P33" s="5"/>
     </row>
@@ -27031,28 +27031,28 @@
         <v>2344</v>
       </c>
       <c r="C34" s="586" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="696" t="s">
         <v>2358</v>
       </c>
       <c r="F34" s="660" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="662" t="s">
         <v>2373</v>
       </c>
       <c r="I34" s="664" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="648" t="s">
         <v>2398</v>
       </c>
       <c r="L34" s="650" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="611"/>
@@ -27077,7 +27077,7 @@
         <v>2391</v>
       </c>
       <c r="O35" s="597" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="P35" s="5"/>
     </row>
@@ -27087,28 +27087,28 @@
         <v>2345</v>
       </c>
       <c r="C36" s="557" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="655" t="s">
         <v>2359</v>
       </c>
       <c r="F36" s="656" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="697" t="s">
         <v>2374</v>
       </c>
       <c r="I36" s="658" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="645" t="s">
         <v>2399</v>
       </c>
       <c r="L36" s="646" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="596"/>
@@ -27133,7 +27133,7 @@
         <v>2392</v>
       </c>
       <c r="O37" s="589" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="P37" s="5"/>
     </row>
@@ -27143,28 +27143,28 @@
         <v>2348</v>
       </c>
       <c r="C38" s="586" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="659" t="s">
         <v>2362</v>
       </c>
       <c r="F38" s="660" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="662" t="s">
         <v>2375</v>
       </c>
       <c r="I38" s="664" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="648" t="s">
         <v>2402</v>
       </c>
       <c r="L38" s="650" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="611"/>
@@ -27189,7 +27189,7 @@
         <v>2395</v>
       </c>
       <c r="O39" s="597" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="P39" s="5"/>
     </row>
@@ -27199,28 +27199,28 @@
         <v>2349</v>
       </c>
       <c r="C40" s="557" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="655" t="s">
         <v>2363</v>
       </c>
       <c r="F40" s="656" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="657" t="s">
         <v>2378</v>
       </c>
       <c r="I40" s="658" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="645" t="s">
         <v>2403</v>
       </c>
       <c r="L40" s="646" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="596"/>
@@ -27245,38 +27245,38 @@
         <v>2396</v>
       </c>
       <c r="O41" s="589" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:16" ht="8.1" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="585" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C42" s="586" t="s">
         <v>2541</v>
-      </c>
-      <c r="C42" s="586" t="s">
-        <v>2542</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="659" t="s">
         <v>2364</v>
       </c>
       <c r="F42" s="660" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="662" t="s">
         <v>2379</v>
       </c>
       <c r="I42" s="664" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="691" t="s">
         <v>2404</v>
       </c>
       <c r="L42" s="650" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="611"/>
@@ -27301,7 +27301,7 @@
         <v>2397</v>
       </c>
       <c r="O43" s="597" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="P43" s="5"/>
     </row>
@@ -27311,28 +27311,28 @@
         <v>2350</v>
       </c>
       <c r="C44" s="557" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="655" t="s">
         <v>2365</v>
       </c>
       <c r="F44" s="656" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="657" t="s">
         <v>2380</v>
       </c>
       <c r="I44" s="658" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="645" t="s">
         <v>2405</v>
       </c>
       <c r="L44" s="646" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="596"/>
@@ -27357,7 +27357,7 @@
         <v>2400</v>
       </c>
       <c r="O45" s="589" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="P45" s="5"/>
     </row>
@@ -27367,7 +27367,7 @@
         <v>2351</v>
       </c>
       <c r="C46" s="586" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="659" t="s">
@@ -27381,14 +27381,14 @@
         <v>2381</v>
       </c>
       <c r="I46" s="664" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="648" t="s">
         <v>2407</v>
       </c>
       <c r="L46" s="650" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="611"/>
@@ -27413,7 +27413,7 @@
         <v>2401</v>
       </c>
       <c r="O47" s="597" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="P47" s="5"/>
     </row>
@@ -27457,7 +27457,7 @@
         <v>2406</v>
       </c>
       <c r="O49" s="304" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="P49" s="5"/>
     </row>
@@ -27474,7 +27474,7 @@
         <v>2283</v>
       </c>
       <c r="F50" s="49" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="G50" s="40"/>
       <c r="H50" s="95" t="s">
@@ -27488,14 +27488,14 @@
         <v>2320</v>
       </c>
       <c r="L50" s="75" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="M50" s="40"/>
       <c r="N50" s="391" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="O50" s="311" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="P50" s="5"/>
     </row>
@@ -27512,7 +27512,7 @@
         <v>2284</v>
       </c>
       <c r="F51" s="60" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="G51" s="40"/>
       <c r="H51" s="381" t="s">
@@ -27526,7 +27526,7 @@
         <v>2321</v>
       </c>
       <c r="L51" s="377" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="M51" s="42"/>
       <c r="N51" s="39"/>
@@ -27545,14 +27545,14 @@
         <v>2287</v>
       </c>
       <c r="F52" s="64" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="G52" s="40"/>
       <c r="H52" s="91" t="s">
         <v>2306</v>
       </c>
       <c r="I52" s="236" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="J52" s="40"/>
       <c r="K52" s="84" t="s">
@@ -27577,14 +27577,14 @@
         <v>2288</v>
       </c>
       <c r="F53" s="60" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="G53" s="40"/>
       <c r="H53" s="381" t="s">
         <v>2307</v>
       </c>
       <c r="I53" s="382" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="J53" s="40"/>
       <c r="K53" s="375" t="s">
@@ -27602,7 +27602,7 @@
         <v>2277</v>
       </c>
       <c r="C54" s="235" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D54" s="40"/>
       <c r="E54" s="63" t="s">
@@ -27623,7 +27623,7 @@
         <v>2329</v>
       </c>
       <c r="L54" s="86" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="M54" s="42"/>
       <c r="N54" s="380"/>
@@ -27634,7 +27634,7 @@
         <v>2278</v>
       </c>
       <c r="C55" s="288" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="D55" s="40"/>
       <c r="E55" s="69" t="s">
@@ -27655,7 +27655,7 @@
         <v>2330</v>
       </c>
       <c r="L55" s="377" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="M55" s="42"/>
       <c r="N55" s="380"/>
@@ -27668,17 +27668,17 @@
       <c r="F56" s="300"/>
       <c r="G56" s="41"/>
       <c r="H56" s="623" t="s">
+        <v>2623</v>
+      </c>
+      <c r="I56" s="625" t="s">
         <v>2624</v>
-      </c>
-      <c r="I56" s="625" t="s">
-        <v>2625</v>
       </c>
       <c r="J56" s="40"/>
       <c r="K56" s="504" t="s">
         <v>2335</v>
       </c>
       <c r="L56" s="505" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="M56" s="42"/>
       <c r="N56" s="380"/>
@@ -27715,10 +27715,10 @@
       <c r="I58" s="32"/>
       <c r="J58" s="40"/>
       <c r="K58" s="671" t="s">
+        <v>2621</v>
+      </c>
+      <c r="L58" s="673" t="s">
         <v>2622</v>
-      </c>
-      <c r="L58" s="673" t="s">
-        <v>2623</v>
       </c>
       <c r="M58" s="42"/>
       <c r="N58" s="380"/>
@@ -27736,7 +27736,7 @@
         <v>2354</v>
       </c>
       <c r="F59" s="572" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="G59" s="40"/>
       <c r="H59" s="537" t="s">
@@ -27778,14 +27778,14 @@
         <v>2355</v>
       </c>
       <c r="F61" s="656" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="G61" s="40"/>
       <c r="H61" s="576" t="s">
         <v>2368</v>
       </c>
       <c r="I61" s="578" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="J61" s="42"/>
       <c r="K61" s="380"/>
@@ -27815,21 +27815,21 @@
         <v>2342</v>
       </c>
       <c r="C63" s="586" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="D63" s="40"/>
       <c r="E63" s="696" t="s">
         <v>2360</v>
       </c>
       <c r="F63" s="660" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="G63" s="40"/>
       <c r="H63" s="580" t="s">
         <v>2369</v>
       </c>
       <c r="I63" s="582" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="J63" s="42"/>
       <c r="K63" s="380"/>
@@ -27859,21 +27859,21 @@
         <v>2343</v>
       </c>
       <c r="C65" s="557" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="D65" s="40"/>
       <c r="E65" s="655" t="s">
         <v>2361</v>
       </c>
       <c r="F65" s="656" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="G65" s="40"/>
       <c r="H65" s="637" t="s">
+        <v>2511</v>
+      </c>
+      <c r="I65" s="638" t="s">
         <v>2512</v>
-      </c>
-      <c r="I65" s="638" t="s">
-        <v>2513</v>
       </c>
       <c r="J65" s="42"/>
       <c r="K65" s="380"/>
@@ -27903,21 +27903,21 @@
         <v>2346</v>
       </c>
       <c r="C67" s="586" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="677" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="F67" s="679" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="580" t="s">
         <v>2372</v>
       </c>
       <c r="I67" s="582" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="J67" s="5"/>
     </row>
@@ -27939,21 +27939,21 @@
         <v>2347</v>
       </c>
       <c r="C69" s="557" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="681" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="F69" s="683" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="637" t="s">
         <v>2377</v>
       </c>
       <c r="I69" s="638" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="J69" s="5"/>
     </row>
@@ -27979,7 +27979,7 @@
         <v>2376</v>
       </c>
       <c r="I71" s="582" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="J71" s="5"/>
     </row>
@@ -27995,7 +27995,7 @@
         <v>2382</v>
       </c>
       <c r="I73" s="120" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="J73" s="5"/>
     </row>
@@ -28005,7 +28005,7 @@
         <v>2383</v>
       </c>
       <c r="I74" s="118" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="J74" s="5"/>
     </row>
@@ -28014,7 +28014,7 @@
         <v>2384</v>
       </c>
       <c r="I75" s="261" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="8.1" customHeight="1">
@@ -28324,7 +28324,7 @@
       <c r="L2" s="513"/>
       <c r="M2" s="5"/>
       <c r="N2" s="764" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="O2" s="765"/>
       <c r="Q2" s="497"/>
@@ -28354,7 +28354,7 @@
         <v>1857</v>
       </c>
       <c r="I3" s="230" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="J3" s="228"/>
       <c r="K3" s="87" t="s">
@@ -28378,7 +28378,7 @@
         <v>1843</v>
       </c>
       <c r="C4" s="232" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="59" t="s">
@@ -28444,7 +28444,7 @@
         <v>2133</v>
       </c>
       <c r="O5" s="306" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="P5" s="5"/>
     </row>
@@ -28468,7 +28468,7 @@
         <v>1859</v>
       </c>
       <c r="I6" s="233" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="79" t="s">
@@ -28482,7 +28482,7 @@
         <v>2099</v>
       </c>
       <c r="O6" s="307" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="P6" s="5"/>
     </row>
@@ -28517,7 +28517,7 @@
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="305" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="O7" s="308" t="s">
         <v>2098</v>
@@ -28870,10 +28870,10 @@
       </c>
       <c r="D18" s="228"/>
       <c r="E18" s="719" t="s">
+        <v>3418</v>
+      </c>
+      <c r="F18" s="720" t="s">
         <v>3419</v>
-      </c>
-      <c r="F18" s="720" t="s">
-        <v>3420</v>
       </c>
       <c r="G18" s="228"/>
       <c r="H18" s="576" t="s">
@@ -28922,7 +28922,7 @@
         <v>1979</v>
       </c>
       <c r="C20" s="587" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="681" t="s">
@@ -29146,7 +29146,7 @@
         <v>1955</v>
       </c>
       <c r="C28" s="587" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="681" t="s">
@@ -29192,7 +29192,7 @@
         <v>1913</v>
       </c>
       <c r="O29" s="589" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="P29" s="5"/>
     </row>
@@ -29304,7 +29304,7 @@
         <v>2104</v>
       </c>
       <c r="O33" s="589" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="P33" s="5"/>
     </row>
@@ -29482,7 +29482,7 @@
         <v>1884</v>
       </c>
       <c r="C40" s="587" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="D40" s="243"/>
       <c r="E40" s="681" t="s">
@@ -29608,7 +29608,7 @@
         <v>1870</v>
       </c>
       <c r="I45" s="732" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="756" t="s">
@@ -29832,10 +29832,10 @@
       <c r="L55" s="710"/>
       <c r="M55" s="4"/>
       <c r="N55" s="595" t="s">
+        <v>2472</v>
+      </c>
+      <c r="O55" s="746" t="s">
         <v>2473</v>
-      </c>
-      <c r="O55" s="746" t="s">
-        <v>2474</v>
       </c>
       <c r="P55" s="42"/>
       <c r="Q55" s="103"/>
@@ -29873,10 +29873,10 @@
       <c r="L57" s="749"/>
       <c r="M57" s="4"/>
       <c r="N57" s="610" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="O57" s="589" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="P57" s="42"/>
       <c r="Q57" s="584"/>
@@ -29910,7 +29910,7 @@
       <c r="I59" s="579"/>
       <c r="J59" s="4"/>
       <c r="K59" s="605" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="L59" s="622" t="s">
         <v>2142</v>
@@ -30045,10 +30045,10 @@
       <c r="L65" s="703"/>
       <c r="M65" s="4"/>
       <c r="N65" s="610" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="O65" s="589" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="P65" s="42"/>
       <c r="Q65" s="103"/>
@@ -30077,10 +30077,10 @@
       <c r="L67" s="410"/>
       <c r="M67" s="4"/>
       <c r="N67" s="305" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="O67" s="308" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="P67" s="42"/>
       <c r="Q67" s="103"/>
@@ -30109,7 +30109,7 @@
         <v>1926</v>
       </c>
       <c r="O69" s="306" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="P69" s="5"/>
     </row>
@@ -30420,7 +30420,7 @@
         <v>109</v>
       </c>
       <c r="C3" s="227" t="s">
-        <v>3542</v>
+        <v>3540</v>
       </c>
       <c r="D3" s="228"/>
       <c r="E3" s="57" t="s">
@@ -30496,7 +30496,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="236" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="84" t="s">
@@ -30513,14 +30513,14 @@
         <v>1</v>
       </c>
       <c r="C6" s="232" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="59" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="77" t="s">
@@ -30682,7 +30682,7 @@
         <v>63</v>
       </c>
       <c r="I11" s="236" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="84" t="s">
@@ -30782,7 +30782,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="81" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="M14" s="5"/>
     </row>
@@ -30861,7 +30861,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="250" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="24" t="s">
@@ -30906,7 +30906,7 @@
         <v>58</v>
       </c>
       <c r="I19" s="118" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="112" t="s">
@@ -30985,7 +30985,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="255" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="21" t="s">
@@ -31006,7 +31006,7 @@
         <v>27</v>
       </c>
       <c r="L22" s="121" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="M22" s="5"/>
     </row>
@@ -31023,7 +31023,7 @@
         <v>87</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="110" t="s">
@@ -31374,8 +31374,8 @@
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -31450,7 +31450,7 @@
         <v>234</v>
       </c>
       <c r="I3" s="230" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="J3" s="228"/>
       <c r="K3" s="87" t="s">
@@ -31471,10 +31471,10 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="59" t="s">
-        <v>3545</v>
+        <v>3543</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>3533</v>
+        <v>3547</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="77" t="s">
@@ -31767,7 +31767,7 @@
         <v>208</v>
       </c>
       <c r="L13" s="86" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="M13" s="5"/>
     </row>
@@ -31898,7 +31898,7 @@
         <v>302</v>
       </c>
       <c r="L18" s="273" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="M18" s="5"/>
     </row>
@@ -32063,7 +32063,7 @@
         <v>191</v>
       </c>
       <c r="C24" s="255" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="21" t="s">
@@ -32476,14 +32476,14 @@
         <v>426</v>
       </c>
       <c r="I3" s="230" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="J3" s="228"/>
       <c r="K3" s="87" t="s">
         <v>413</v>
       </c>
       <c r="L3" s="231" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="M3" s="5"/>
     </row>
@@ -32662,7 +32662,7 @@
         <v>432</v>
       </c>
       <c r="I9" s="236" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="84" t="s">
@@ -32910,7 +32910,7 @@
         <v>363</v>
       </c>
       <c r="F18" s="251" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="106" t="s">
@@ -32941,7 +32941,7 @@
         <v>364</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>3544</v>
+        <v>3542</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="110" t="s">
@@ -33526,7 +33526,7 @@
         <v>646</v>
       </c>
       <c r="L3" s="231" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="M3" s="5"/>
     </row>
@@ -33550,7 +33550,7 @@
         <v>615</v>
       </c>
       <c r="I4" s="233" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="79" t="s">
@@ -33581,14 +33581,14 @@
         <v>616</v>
       </c>
       <c r="I5" s="236" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="84" t="s">
         <v>648</v>
       </c>
       <c r="L5" s="86" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="M5" s="5"/>
     </row>
@@ -33650,7 +33650,7 @@
         <v>650</v>
       </c>
       <c r="L7" s="86" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="M7" s="5"/>
     </row>
@@ -33995,7 +33995,7 @@
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="112" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="L19" s="119" t="s">
         <v>559</v>
@@ -34008,7 +34008,7 @@
         <v>661</v>
       </c>
       <c r="C20" s="255" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="21" t="s">
@@ -34215,7 +34215,7 @@
         <v>554</v>
       </c>
       <c r="L26" s="121" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="M26" s="5"/>
     </row>
@@ -34325,7 +34325,7 @@
         <v>704</v>
       </c>
       <c r="F30" s="260" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="123" t="s">
@@ -34358,7 +34358,7 @@
         <v>567</v>
       </c>
       <c r="L31" s="654" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="M31" s="5"/>
     </row>
